--- a/DataFolder/ExcelFiles/Сушильные шкафы.xlsx
+++ b/DataFolder/ExcelFiles/Сушильные шкафы.xlsx
@@ -1,50 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neff\Desktop\Родионов\Сайт\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="сушильный шкаф" sheetId="1" r:id="rId1"/>
+    <sheet name="Сушильные шкафы" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
-  <si>
-    <t>Тип товара</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Название</t>
   </si>
   <si>
-    <t>Активность</t>
-  </si>
-  <si>
-    <t>Сорт.</t>
-  </si>
-  <si>
-    <t>Дата изм.</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Доступность</t>
-  </si>
-  <si>
-    <t>Количество подписок</t>
-  </si>
-  <si>
     <t>Товарная Группа 3</t>
   </si>
   <si>
@@ -57,120 +36,24 @@
     <t>Артикул</t>
   </si>
   <si>
-    <t>Размораживание морозильной камеры</t>
-  </si>
-  <si>
-    <t>Генератор льда</t>
-  </si>
-  <si>
     <t>Цвет</t>
   </si>
   <si>
-    <t>Объем морозильной камеры</t>
-  </si>
-  <si>
     <t>Управление</t>
   </si>
   <si>
-    <t>Климатический класс</t>
-  </si>
-  <si>
-    <t>Уровень шума</t>
-  </si>
-  <si>
-    <t>Общий объем</t>
-  </si>
-  <si>
-    <t>Ширина</t>
-  </si>
-  <si>
-    <t>Длина</t>
-  </si>
-  <si>
-    <t>Доступное количество</t>
-  </si>
-  <si>
-    <t>Зарезервировано</t>
-  </si>
-  <si>
-    <t>Коэф.</t>
-  </si>
-  <si>
-    <t>Ед. измерения</t>
-  </si>
-  <si>
-    <t>Уменьшать количество при заказе</t>
-  </si>
-  <si>
-    <t>Мощность замораживания</t>
-  </si>
-  <si>
     <t>Защита от детей</t>
   </si>
   <si>
-    <t>Аккумулятор холода в комплекте</t>
-  </si>
-  <si>
-    <t>Индикация</t>
-  </si>
-  <si>
-    <t>Автономное сохранение холода</t>
-  </si>
-  <si>
-    <t>Дополнительные возможности</t>
-  </si>
-  <si>
-    <t>Цвет корпуса</t>
-  </si>
-  <si>
     <t>Возможность перевешивания двери</t>
   </si>
   <si>
-    <t>Диапазон температуры в камере</t>
-  </si>
-  <si>
-    <t>Тип винного шкафа</t>
-  </si>
-  <si>
-    <t>Нет СИЦ</t>
-  </si>
-  <si>
-    <t>Сушка</t>
-  </si>
-  <si>
-    <t>Тип загрузки</t>
-  </si>
-  <si>
-    <t>Максимальная загрузка белья</t>
-  </si>
-  <si>
-    <t>Расход воды за стирку</t>
-  </si>
-  <si>
-    <t>Класс эффективности отжима</t>
-  </si>
-  <si>
     <t>Класс энергопотребления</t>
   </si>
   <si>
     <t>Установка</t>
   </si>
   <si>
-    <t>Загрузочный люк</t>
-  </si>
-  <si>
-    <t>Скорость вращения при отжиме</t>
-  </si>
-  <si>
-    <t>Выбор скорости отжима</t>
-  </si>
-  <si>
-    <t>Контроль за уровнем пены</t>
-  </si>
-  <si>
-    <t>Защита от протечек воды</t>
-  </si>
-  <si>
     <t>Тип сушки</t>
   </si>
   <si>
@@ -180,18 +63,9 @@
     <t>Количество программ сушки</t>
   </si>
   <si>
-    <t>простой</t>
-  </si>
-  <si>
     <t>Сушильный шкаф Asko DC7573 W</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>29.11.2016 18:05:35</t>
-  </si>
-  <si>
     <t>DC7573 W</t>
   </si>
   <si>
@@ -201,71 +75,44 @@
     <t>электронное</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>по умолчанию (да)</t>
-  </si>
-  <si>
     <t>есть</t>
   </si>
   <si>
-    <t>фронтальная</t>
-  </si>
-  <si>
-    <t>3,5 кг</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>А</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>Сушильный шкаф Asko DC7583 W</t>
   </si>
   <si>
-    <t>29.11.2016 18:04:43</t>
-  </si>
-  <si>
     <t>DC7583 W</t>
   </si>
   <si>
-    <t>6 кг</t>
-  </si>
-  <si>
     <t>Сушильный шкаф Asko DC7583 S</t>
   </si>
   <si>
-    <t>29.11.2016 18:03:16</t>
-  </si>
-  <si>
     <t>DC7583 S</t>
   </si>
   <si>
     <t>серебристый</t>
   </si>
   <si>
-    <t>фронтальая</t>
-  </si>
-  <si>
     <t>отдельностоящий</t>
   </si>
   <si>
     <t>вентиляционная</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +273,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,20 +463,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -747,6 +591,64 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,30 +697,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1174,536 +1066,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="6">
-        <v>500</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="6">
-        <v>5192</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="6">
-        <v>500</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6">
-        <v>5191</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="6">
-        <v>500</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5196</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA4" s="7" t="s">
-        <v>68</v>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
